--- a/po forecast comparison/B07GBM3M88_sales_po_comparison.xlsx
+++ b/po forecast comparison/B07GBM3M88_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:B99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1227,6 +1227,14 @@
       </c>
       <c r="B98" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B99" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -8006,7 +8014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C154"/>
+  <dimension ref="A1:C155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9711,6 +9719,17 @@
         <v>0</v>
       </c>
       <c r="C154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B155" t="n">
+        <v>20</v>
+      </c>
+      <c r="C155" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B07GBM3M88_sales_po_comparison.xlsx
+++ b/po forecast comparison/B07GBM3M88_sales_po_comparison.xlsx
@@ -1234,7 +1234,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B99" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9727,7 +9727,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B155" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
